--- a/xlsx/2007年－2013年环球金融危机_intext.xlsx
+++ b/xlsx/2007年－2013年环球金融危机_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="504">
   <si>
     <t>2007年－2013年环球金融危机</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>機器翻譯</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_2007年－2013年环球金融危机</t>
+    <t>机器翻译</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_2007年－2013年环球金融危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%A4%A7%E8%A1%B0%E9%80%80</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%E5%B7%AE%E5%83%B9</t>
   </si>
   <si>
-    <t>泰德差價</t>
+    <t>泰德差价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%94%A8%E9%A2%A8%E9%9A%AA</t>
   </si>
   <si>
-    <t>信用風險</t>
+    <t>信用风险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%B2%B8%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>次貸危機</t>
+    <t>次贷危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AC%A1%E8%B4%B7%E5%8D%B1%E6%9C%BA%E6%97%B6%E9%97%B4%E8%A1%A8</t>
@@ -89,19 +89,19 @@
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E7%92%B0%E7%90%83%E8%82%A1%E7%81%BD</t>
   </si>
   <si>
-    <t>2008年環球股災</t>
+    <t>2008年环球股灾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%B8%BB%E6%AC%8A%E5%82%B5%E5%8B%99%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>歐洲主權債務危機</t>
+    <t>欧洲主权债务危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC34%E5%B1%86%E5%85%AB%E5%A4%A7%E5%B7%A5%E6%A5%AD%E5%9C%8B%E9%AB%98%E5%B3%B0%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第34屆八大工業國高峰會議</t>
+    <t>第34届八大工业国高峰会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E4%BA%8C%E5%8D%81%E5%9B%BD%E9%9B%86%E5%9B%A2%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B3%B0%E4%BC%9A</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E6%B2%99%E7%9A%87</t>
   </si>
   <si>
-    <t>汽車沙皇</t>
+    <t>汽车沙皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%A9%A9%E5%AE%9A%E7%B7%8A%E6%80%A5%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>經濟穩定緊急法案</t>
+    <t>经济稳定紧急法案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Troubled_Asset_Relief_Program</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4%E7%BE%8E%E5%9C%8B%E5%BE%A9%E7%94%A6%E8%88%87%E5%86%8D%E6%8A%95%E8%B3%87%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>2009年美國復甦與再投資法案</t>
+    <t>2009年美国复甦与再投资法案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Green_New_Deal</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%9A%9B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>美國國際集團</t>
+    <t>美国国际集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>克萊斯勒</t>
+    <t>克莱斯勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%97%97%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>花旗集團</t>
+    <t>花旗集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E5%9C%B0%E7%BE%8E</t>
@@ -245,19 +245,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
+    <t>通用汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%9E%97%E8%AD%89%E5%88%B8</t>
   </si>
   <si>
-    <t>美林證券</t>
+    <t>美林证券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E7%9A%87%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>蘇格蘭皇家銀行</t>
+    <t>苏格兰皇家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%9B%BC%E5%85%84%E5%BC%9F</t>
@@ -269,25 +269,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%9B%BC%E5%85%84%E5%BC%9F%E8%BF%B7%E4%BD%A0%E5%82%B5%E5%88%B8%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>雷曼兄弟迷你債券事件</t>
+    <t>雷曼兄弟迷你债券事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%8D%9A%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>薩博汽車</t>
+    <t>萨博汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E9%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>瑞銀集團</t>
+    <t>瑞银集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E4%BA%92%E6%83%A0</t>
   </si>
   <si>
-    <t>華盛頓互惠</t>
+    <t>华盛顿互惠</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_banks_acquired_or_bankrupted_during_the_Great_Recession</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>金融危機</t>
+    <t>金融危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E7%B4%9A%E6%88%BF%E5%B1%8B%E4%BF%A1%E8%B2%B8%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>次級房屋信貸危機</t>
+    <t>次级房屋信贷危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8A%A8%E6%80%A7</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B49%E6%9C%88</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%A1%B0%E9%80%80</t>
   </si>
   <si>
-    <t>經濟衰退</t>
+    <t>经济衰退</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E6%B5%81%E9%80%9A%E6%80%A7</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%B2%A9%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>北岩銀行</t>
+    <t>北岩银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E9%87%91%E6%9D%A0%E6%9D%86</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%82%B5</t>
   </si>
   <si>
-    <t>公債</t>
+    <t>公债</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E5%88%A9%E7%8E%87</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E8%AB%BE%E9%AA%A8%E7%89%8C%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>多米諾骨牌效應</t>
+    <t>多米诺骨牌效应</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/David_X._Li</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華爾街日報</t>
+    <t>华尔街日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E9%87%91%E8%9E%8D%E5%9F%8E</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97</t>
   </si>
   <si>
-    <t>華爾街</t>
+    <t>华尔街</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%B7%A5%E7%A8%8B</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E7%AC%AC%E5%85%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>巴黎第六大學</t>
+    <t>巴黎第六大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%AE%E5%8F%AF%C2%B7%E5%8E%84%E5%B0%94%C2%B7%E5%8D%A1%E9%9C%B2%E4%BC%8A</t>
@@ -461,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%A4%A9%E9%B5%9D%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>黑天鵝效應</t>
+    <t>黑天鹅效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E8%A5%BF%E5%A7%86%C2%B7%E5%B0%BC%E5%8F%AF%E6%8B%89%E6%96%AF%C2%B7%E5%A1%94%E9%9B%B7%E4%BC%AF</t>
   </si>
   <si>
-    <t>納西姆·尼可拉斯·塔雷伯</t>
+    <t>纳西姆·尼可拉斯·塔雷伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB</t>
@@ -497,9 +497,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%9E%97%E8%AF%81%E5%88%B8</t>
   </si>
   <si>
-    <t>美林证券</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/HBOS</t>
   </si>
   <si>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E8%BE%9B%C2%B7%E5%A1%94%E9%9B%B7%E4%BC%AF</t>
   </si>
   <si>
-    <t>納辛·塔雷伯</t>
+    <t>纳辛·塔雷伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%9F</t>
@@ -533,19 +530,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BC%E7%8F%BE%E7%8E%87</t>
   </si>
   <si>
-    <t>貼現率</t>
+    <t>贴现率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9F%BA%E9%87%91%E5%88%A9%E7%8E%87</t>
   </si>
   <si>
-    <t>聯邦基金利率</t>
+    <t>联邦基金利率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>美國銀行</t>
+    <t>美国银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AIG</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%84%B2%E5%B1%80</t>
   </si>
   <si>
-    <t>聯儲局</t>
+    <t>联储局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E8%82%A1</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%85%88%E8%82%A1</t>
   </si>
   <si>
-    <t>優先股</t>
+    <t>优先股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%88%A9</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%B2%A1%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國財政部</t>
+    <t>美国财政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FDIC</t>
@@ -605,43 +602,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國證券交易委員會</t>
+    <t>美国证券交易委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E7%B7%9A%E8%B3%A3%E7%A9%BA</t>
   </si>
   <si>
-    <t>短線賣空</t>
+    <t>短线卖空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%B2%A1%E6%94%BF%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國財政部長</t>
+    <t>美国财政部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>保爾森</t>
+    <t>保尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8B%95%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>流動資產</t>
+    <t>流动资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -653,13 +650,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>東亞銀行</t>
+    <t>东亚银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>銀行控股公司</t>
+    <t>银行控股公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E4%BF%9D%E5%B0%94%E6%A3%AE</t>
@@ -671,19 +668,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%BA%A5%E8%82%AF</t>
   </si>
   <si>
-    <t>約翰·麥肯</t>
+    <t>约翰·麦肯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A7%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拉克·奧巴馬</t>
+    <t>巴拉克·奥巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E8%AC%9D%E7%88%BE%E6%AF%94</t>
   </si>
   <si>
-    <t>理查·謝爾比</t>
+    <t>理查·谢尔比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%AD%98%E6%AC%BE%E4%BF%9D%E9%99%A9%E5%85%AC%E5%8F%B8</t>
@@ -701,31 +698,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%9D%A6%E5%BE%B7%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>桑坦德銀行</t>
+    <t>桑坦德银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E9%80%9A%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>富通金融集團</t>
+    <t>富通金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
+    <t>卢森堡</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wachovia</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%97%97%E9%8A%80%E8%A1%8C%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>花旗銀行集團</t>
+    <t>花旗银行集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91</t>
@@ -749,43 +746,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>眾議院</t>
+    <t>众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E7%93%8A%E5%B7%A5%E6%A5%AD%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>道瓊工業指數</t>
+    <t>道琼工业指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%96%AF%E9%81%94%E5%85%8B%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>納斯達克指數</t>
+    <t>纳斯达克指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E6%99%AE%E7%88%BE500%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>標準普爾500指數</t>
+    <t>标准普尔500指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%90%8C%E6%A5%AD%E6%8B%86%E6%94%BE%E5%88%A9%E7%8E%87</t>
   </si>
   <si>
-    <t>倫敦同業拆放利率</t>
+    <t>伦敦同业拆放利率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E5%A4%8F%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>德克夏集團</t>
+    <t>德克夏集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%81%AF%E5%90%88%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>愛爾蘭聯合銀行</t>
+    <t>爱尔兰联合银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E9%93%B6%E8%A1%8C</t>
@@ -797,19 +794,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>法國總統</t>
+    <t>法国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%A7%91%E5%A5%87</t>
   </si>
   <si>
-    <t>薩科奇</t>
+    <t>萨科奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%86%B0%E5%B2%9B%E9%87%91%E8%9E%8D%E5%8D%B1%E6%9C%BA</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E5%85%8B%E6%9C%97</t>
   </si>
   <si>
-    <t>冰島克朗</t>
+    <t>冰岛克朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B%E5%9B%BD%E5%AE%B6%E9%93%B6%E8%A1%8C</t>
@@ -833,25 +830,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>梅克爾</t>
+    <t>梅克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E6%99%AE%E7%88%BE</t>
   </si>
   <si>
-    <t>標準普爾</t>
+    <t>标准普尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%B0%E5%B9%A3</t>
   </si>
   <si>
-    <t>新台幣</t>
+    <t>新台币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -875,19 +872,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%8E%8A</t>
   </si>
   <si>
-    <t>英鎊</t>
+    <t>英镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%85%8B%E8%90%8A%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>巴克萊銀行</t>
+    <t>巴克莱银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%99%E8%B1%90</t>
   </si>
   <si>
-    <t>滙豐</t>
+    <t>滙丰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Lloyds_TSB</t>
@@ -899,25 +896,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A3%E6%89%93%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>渣打銀行</t>
+    <t>渣打银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E5%8C%96</t>
   </si>
   <si>
-    <t>國有化</t>
+    <t>国有化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%AE%E8%A1%8C</t>
   </si>
   <si>
-    <t>歐洲央行</t>
+    <t>欧洲央行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>英格蘭銀行</t>
+    <t>英格兰银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%A4%AE%E8%A1%8C</t>
@@ -929,43 +926,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>瑞典銀行</t>
+    <t>瑞典银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>瑞士銀行</t>
+    <t>瑞士银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA%E6%B0%91%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中國人民銀行</t>
+    <t>中国人民银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%93%88%E8%8C%82%E5%BE%B7%C2%B7%E8%89%BE%E5%93%88%E9%82%81%E8%BF%AA%E5%85%A7%E8%B3%88%E5%BE%B7</t>
   </si>
   <si>
-    <t>馬哈茂德·艾哈邁迪內賈德</t>
+    <t>马哈茂德·艾哈迈迪内贾德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OPEC</t>
@@ -977,13 +974,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>經濟合作組織</t>
+    <t>经济合作组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E7%93%8A%E6%96%AF%E5%B7%A5%E6%A5%AD%E5%B9%B3%E5%9D%87%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>道瓊斯工業平均指數</t>
+    <t>道琼斯工业平均指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%81%94%E5%82%A8</t>
@@ -995,25 +992,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E8%B2%B8%E7%BE%8E</t>
   </si>
   <si>
-    <t>房貸美</t>
+    <t>房贷美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2%E4%BF%9D%E8%AD%B7</t>
   </si>
   <si>
-    <t>破產保護</t>
+    <t>破产保护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%9C%8B%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>富國銀行</t>
+    <t>富国银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>德國政府</t>
+    <t>德国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BD%A6%E5%85%AC%E5%8F%B8</t>
@@ -1031,43 +1028,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E8%B1%AC%E4%BA%94%E5%9C%8B</t>
   </si>
   <si>
-    <t>歐豬五國</t>
+    <t>欧猪五国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%BF%A1%E7%94%A8%E8%A9%95%E7%B4%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國信用評級列表</t>
+    <t>各国信用评级列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
   </si>
   <si>
-    <t>經濟大蕭條</t>
+    <t>经济大萧条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%87%91%E8%9E%8D%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>亞洲金融危機</t>
+    <t>亚洲金融危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>存款保險</t>
+    <t>存款保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%B8%E6%AA%AC%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>檸檬社會主義</t>
+    <t>柠檬社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>金融工程學</t>
+    <t>金融工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%97%85</t>
@@ -1091,13 +1088,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B2%A1%E6%94%BF</t>
   </si>
   <si>
-    <t>公共財政</t>
+    <t>公共财政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E9%87%91%E8%9E%8D%E5%AD%A6</t>
@@ -1145,13 +1142,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>保險</t>
+    <t>保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E5%91%A8%E5%88%8A</t>
   </si>
   <si>
-    <t>商業周刊</t>
+    <t>商业周刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/The_New_York_Times</t>
@@ -1181,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/The_Times</t>
@@ -1229,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%81%BD</t>
   </si>
   <si>
-    <t>股災</t>
+    <t>股灾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kipper_und_Wipper</t>
@@ -1361,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/1929%E5%B9%B4%E8%8F%AF%E7%88%BE%E8%A1%97%E8%82%A1%E7%81%BD</t>
   </si>
   <si>
-    <t>1929年華爾街股災</t>
+    <t>1929年华尔街股灾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Recession_of_1937%E2%80%9338</t>
@@ -1457,15 +1454,12 @@
     <t>https://zh.wikipedia.org/wiki/2007%E5%B9%B4%E2%80%932008%E5%B9%B4%E7%92%B0%E7%90%83%E9%87%91%E8%9E%8D%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>2007年–2008年環球金融危機</t>
+    <t>2007年–2008年环球金融危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E7%8E%AF%E7%90%83%E8%82%A1%E7%81%BE</t>
   </si>
   <si>
-    <t>2008年环球股灾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%8B%9C%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
@@ -1511,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%8E%BB%E7%95%99%E6%AD%90%E7%9B%9F%E5%85%AC%E6%8A%95</t>
   </si>
   <si>
-    <t>英國去留歐盟公投</t>
+    <t>英国去留欧盟公投</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Aftermath_of_the_United_Kingdom_European_Union_membership_referendum,_2016</t>
@@ -4310,7 +4304,7 @@
         <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4336,10 +4330,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4394,10 +4388,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" t="s">
         <v>163</v>
-      </c>
-      <c r="F87" t="s">
-        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4423,10 +4417,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" t="s">
         <v>165</v>
-      </c>
-      <c r="F88" t="s">
-        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4452,10 +4446,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F89" t="s">
         <v>167</v>
-      </c>
-      <c r="F89" t="s">
-        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4481,10 +4475,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>168</v>
+      </c>
+      <c r="F90" t="s">
         <v>169</v>
-      </c>
-      <c r="F90" t="s">
-        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>10</v>
@@ -4510,10 +4504,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" t="s">
         <v>171</v>
-      </c>
-      <c r="F91" t="s">
-        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -4539,10 +4533,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>172</v>
+      </c>
+      <c r="F92" t="s">
         <v>173</v>
-      </c>
-      <c r="F92" t="s">
-        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4568,10 +4562,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>174</v>
+      </c>
+      <c r="F93" t="s">
         <v>175</v>
-      </c>
-      <c r="F93" t="s">
-        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4597,10 +4591,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>176</v>
+      </c>
+      <c r="F94" t="s">
         <v>177</v>
-      </c>
-      <c r="F94" t="s">
-        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>8</v>
@@ -4626,10 +4620,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" t="s">
         <v>179</v>
-      </c>
-      <c r="F95" t="s">
-        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4655,10 +4649,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>180</v>
+      </c>
+      <c r="F96" t="s">
         <v>181</v>
-      </c>
-      <c r="F96" t="s">
-        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4684,10 +4678,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>182</v>
+      </c>
+      <c r="F97" t="s">
         <v>183</v>
-      </c>
-      <c r="F97" t="s">
-        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4713,10 +4707,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" t="s">
         <v>185</v>
-      </c>
-      <c r="F98" t="s">
-        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4742,10 +4736,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" t="s">
         <v>187</v>
-      </c>
-      <c r="F99" t="s">
-        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4771,10 +4765,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" t="s">
         <v>189</v>
-      </c>
-      <c r="F100" t="s">
-        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -4800,10 +4794,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" t="s">
         <v>191</v>
-      </c>
-      <c r="F101" t="s">
-        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>4</v>
@@ -4829,10 +4823,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
         <v>193</v>
-      </c>
-      <c r="F102" t="s">
-        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4858,10 +4852,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>195</v>
-      </c>
-      <c r="F103" t="s">
-        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4887,10 +4881,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
-      </c>
-      <c r="F104" t="s">
-        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4916,10 +4910,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
         <v>199</v>
-      </c>
-      <c r="F105" t="s">
-        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4945,10 +4939,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
         <v>201</v>
-      </c>
-      <c r="F106" t="s">
-        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4974,10 +4968,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>203</v>
-      </c>
-      <c r="F107" t="s">
-        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5003,10 +4997,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
         <v>205</v>
-      </c>
-      <c r="F108" t="s">
-        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5032,10 +5026,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5061,10 +5055,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
         <v>209</v>
-      </c>
-      <c r="F110" t="s">
-        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5090,10 +5084,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" t="s">
         <v>211</v>
-      </c>
-      <c r="F111" t="s">
-        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5119,10 +5113,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
         <v>213</v>
-      </c>
-      <c r="F112" t="s">
-        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5148,10 +5142,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5177,10 +5171,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5206,10 +5200,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5235,10 +5229,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5264,10 +5258,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5293,10 +5287,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5351,10 +5345,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>226</v>
+      </c>
+      <c r="F120" t="s">
         <v>227</v>
-      </c>
-      <c r="F120" t="s">
-        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5380,10 +5374,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>228</v>
+      </c>
+      <c r="F121" t="s">
         <v>229</v>
-      </c>
-      <c r="F121" t="s">
-        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>6</v>
@@ -5409,10 +5403,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>230</v>
+      </c>
+      <c r="F122" t="s">
         <v>231</v>
-      </c>
-      <c r="F122" t="s">
-        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>6</v>
@@ -5438,10 +5432,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
         <v>233</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>8</v>
@@ -5467,10 +5461,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
         <v>235</v>
-      </c>
-      <c r="F124" t="s">
-        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -5496,10 +5490,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>6</v>
@@ -5525,10 +5519,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
         <v>239</v>
-      </c>
-      <c r="F126" t="s">
-        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5554,10 +5548,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5583,10 +5577,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>7</v>
@@ -5612,10 +5606,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>4</v>
@@ -5641,10 +5635,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5670,10 +5664,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5699,10 +5693,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5728,10 +5722,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
         <v>253</v>
-      </c>
-      <c r="F133" t="s">
-        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5757,10 +5751,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>254</v>
+      </c>
+      <c r="F134" t="s">
         <v>255</v>
-      </c>
-      <c r="F134" t="s">
-        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5786,10 +5780,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
         <v>257</v>
-      </c>
-      <c r="F135" t="s">
-        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5815,10 +5809,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5844,10 +5838,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
         <v>261</v>
-      </c>
-      <c r="F137" t="s">
-        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5873,10 +5867,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
         <v>263</v>
-      </c>
-      <c r="F138" t="s">
-        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>11</v>
@@ -5902,10 +5896,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5931,10 +5925,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
         <v>267</v>
-      </c>
-      <c r="F140" t="s">
-        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5960,10 +5954,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>268</v>
+      </c>
+      <c r="F141" t="s">
         <v>269</v>
-      </c>
-      <c r="F141" t="s">
-        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5989,10 +5983,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
-      </c>
-      <c r="F142" t="s">
-        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6018,10 +6012,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>272</v>
+      </c>
+      <c r="F143" t="s">
         <v>273</v>
-      </c>
-      <c r="F143" t="s">
-        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>6</v>
@@ -6047,10 +6041,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -6076,10 +6070,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
         <v>277</v>
-      </c>
-      <c r="F145" t="s">
-        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -6105,10 +6099,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>278</v>
+      </c>
+      <c r="F146" t="s">
         <v>279</v>
-      </c>
-      <c r="F146" t="s">
-        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>27</v>
@@ -6134,10 +6128,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6163,10 +6157,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6192,10 +6186,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>284</v>
+      </c>
+      <c r="F149" t="s">
         <v>285</v>
-      </c>
-      <c r="F149" t="s">
-        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>4</v>
@@ -6221,10 +6215,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" t="s">
         <v>287</v>
-      </c>
-      <c r="F150" t="s">
-        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6250,10 +6244,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>288</v>
+      </c>
+      <c r="F151" t="s">
         <v>289</v>
-      </c>
-      <c r="F151" t="s">
-        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6279,10 +6273,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>290</v>
+      </c>
+      <c r="F152" t="s">
         <v>291</v>
-      </c>
-      <c r="F152" t="s">
-        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6308,10 +6302,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" t="s">
         <v>293</v>
-      </c>
-      <c r="F153" t="s">
-        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6337,10 +6331,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>294</v>
+      </c>
+      <c r="F154" t="s">
         <v>295</v>
-      </c>
-      <c r="F154" t="s">
-        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -6366,10 +6360,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>296</v>
+      </c>
+      <c r="F155" t="s">
         <v>297</v>
-      </c>
-      <c r="F155" t="s">
-        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6395,10 +6389,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156" t="s">
         <v>299</v>
-      </c>
-      <c r="F156" t="s">
-        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6424,10 +6418,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>300</v>
+      </c>
+      <c r="F157" t="s">
         <v>301</v>
-      </c>
-      <c r="F157" t="s">
-        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6453,10 +6447,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
         <v>303</v>
-      </c>
-      <c r="F158" t="s">
-        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6482,10 +6476,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6511,10 +6505,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6540,10 +6534,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>26</v>
@@ -6569,10 +6563,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>310</v>
+      </c>
+      <c r="F162" t="s">
         <v>311</v>
-      </c>
-      <c r="F162" t="s">
-        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6598,10 +6592,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>312</v>
+      </c>
+      <c r="F163" t="s">
         <v>313</v>
-      </c>
-      <c r="F163" t="s">
-        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6627,10 +6621,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>314</v>
+      </c>
+      <c r="F164" t="s">
         <v>315</v>
-      </c>
-      <c r="F164" t="s">
-        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6656,10 +6650,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>316</v>
+      </c>
+      <c r="F165" t="s">
         <v>317</v>
-      </c>
-      <c r="F165" t="s">
-        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6685,10 +6679,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>318</v>
+      </c>
+      <c r="F166" t="s">
         <v>319</v>
-      </c>
-      <c r="F166" t="s">
-        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6714,10 +6708,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>320</v>
+      </c>
+      <c r="F167" t="s">
         <v>321</v>
-      </c>
-      <c r="F167" t="s">
-        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6743,10 +6737,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>322</v>
+      </c>
+      <c r="F168" t="s">
         <v>323</v>
-      </c>
-      <c r="F168" t="s">
-        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6772,10 +6766,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>324</v>
+      </c>
+      <c r="F169" t="s">
         <v>325</v>
-      </c>
-      <c r="F169" t="s">
-        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6801,10 +6795,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>326</v>
+      </c>
+      <c r="F170" t="s">
         <v>327</v>
-      </c>
-      <c r="F170" t="s">
-        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6830,10 +6824,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>224</v>
+      </c>
+      <c r="F171" t="s">
         <v>225</v>
-      </c>
-      <c r="F171" t="s">
-        <v>226</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6859,10 +6853,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>328</v>
+      </c>
+      <c r="F172" t="s">
         <v>329</v>
-      </c>
-      <c r="F172" t="s">
-        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6888,10 +6882,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>330</v>
+      </c>
+      <c r="F173" t="s">
         <v>331</v>
-      </c>
-      <c r="F173" t="s">
-        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6917,10 +6911,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>332</v>
+      </c>
+      <c r="F174" t="s">
         <v>333</v>
-      </c>
-      <c r="F174" t="s">
-        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6946,10 +6940,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>334</v>
+      </c>
+      <c r="F175" t="s">
         <v>335</v>
-      </c>
-      <c r="F175" t="s">
-        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6975,10 +6969,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>336</v>
+      </c>
+      <c r="F176" t="s">
         <v>337</v>
-      </c>
-      <c r="F176" t="s">
-        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7004,10 +6998,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>338</v>
+      </c>
+      <c r="F177" t="s">
         <v>339</v>
-      </c>
-      <c r="F177" t="s">
-        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7033,10 +7027,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>340</v>
+      </c>
+      <c r="F178" t="s">
         <v>341</v>
-      </c>
-      <c r="F178" t="s">
-        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7062,10 +7056,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>342</v>
+      </c>
+      <c r="F179" t="s">
         <v>343</v>
-      </c>
-      <c r="F179" t="s">
-        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7091,10 +7085,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>264</v>
+      </c>
+      <c r="F180" t="s">
         <v>265</v>
-      </c>
-      <c r="F180" t="s">
-        <v>266</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7120,10 +7114,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>344</v>
+      </c>
+      <c r="F181" t="s">
         <v>345</v>
-      </c>
-      <c r="F181" t="s">
-        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7149,10 +7143,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>346</v>
+      </c>
+      <c r="F182" t="s">
         <v>347</v>
-      </c>
-      <c r="F182" t="s">
-        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7178,10 +7172,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>348</v>
+      </c>
+      <c r="F183" t="s">
         <v>349</v>
-      </c>
-      <c r="F183" t="s">
-        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7207,10 +7201,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>350</v>
+      </c>
+      <c r="F184" t="s">
         <v>351</v>
-      </c>
-      <c r="F184" t="s">
-        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7236,10 +7230,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>352</v>
+      </c>
+      <c r="F185" t="s">
         <v>353</v>
-      </c>
-      <c r="F185" t="s">
-        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>6</v>
@@ -7265,10 +7259,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>354</v>
+      </c>
+      <c r="F186" t="s">
         <v>355</v>
-      </c>
-      <c r="F186" t="s">
-        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7294,10 +7288,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>356</v>
+      </c>
+      <c r="F187" t="s">
         <v>357</v>
-      </c>
-      <c r="F187" t="s">
-        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7323,10 +7317,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>358</v>
+      </c>
+      <c r="F188" t="s">
         <v>359</v>
-      </c>
-      <c r="F188" t="s">
-        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7352,10 +7346,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>360</v>
+      </c>
+      <c r="F189" t="s">
         <v>361</v>
-      </c>
-      <c r="F189" t="s">
-        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7381,10 +7375,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>362</v>
+      </c>
+      <c r="F190" t="s">
         <v>363</v>
-      </c>
-      <c r="F190" t="s">
-        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7410,10 +7404,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>364</v>
+      </c>
+      <c r="F191" t="s">
         <v>365</v>
-      </c>
-      <c r="F191" t="s">
-        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7439,10 +7433,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>366</v>
+      </c>
+      <c r="F192" t="s">
         <v>367</v>
-      </c>
-      <c r="F192" t="s">
-        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7468,10 +7462,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>368</v>
+      </c>
+      <c r="F193" t="s">
         <v>369</v>
-      </c>
-      <c r="F193" t="s">
-        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7497,10 +7491,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>370</v>
+      </c>
+      <c r="F194" t="s">
         <v>371</v>
-      </c>
-      <c r="F194" t="s">
-        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7526,10 +7520,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>372</v>
+      </c>
+      <c r="F195" t="s">
         <v>373</v>
-      </c>
-      <c r="F195" t="s">
-        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7555,10 +7549,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>374</v>
+      </c>
+      <c r="F196" t="s">
         <v>375</v>
-      </c>
-      <c r="F196" t="s">
-        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7584,10 +7578,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>376</v>
+      </c>
+      <c r="F197" t="s">
         <v>377</v>
-      </c>
-      <c r="F197" t="s">
-        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7613,10 +7607,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>378</v>
+      </c>
+      <c r="F198" t="s">
         <v>379</v>
-      </c>
-      <c r="F198" t="s">
-        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>37</v>
@@ -7642,10 +7636,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>380</v>
+      </c>
+      <c r="F199" t="s">
         <v>381</v>
-      </c>
-      <c r="F199" t="s">
-        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7671,10 +7665,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>382</v>
+      </c>
+      <c r="F200" t="s">
         <v>383</v>
-      </c>
-      <c r="F200" t="s">
-        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>8</v>
@@ -7700,10 +7694,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>384</v>
+      </c>
+      <c r="F201" t="s">
         <v>385</v>
-      </c>
-      <c r="F201" t="s">
-        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7729,10 +7723,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>386</v>
+      </c>
+      <c r="F202" t="s">
         <v>387</v>
-      </c>
-      <c r="F202" t="s">
-        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>8</v>
@@ -7758,10 +7752,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>386</v>
+      </c>
+      <c r="F203" t="s">
         <v>387</v>
-      </c>
-      <c r="F203" t="s">
-        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7787,10 +7781,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>388</v>
+      </c>
+      <c r="F204" t="s">
         <v>389</v>
-      </c>
-      <c r="F204" t="s">
-        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>6</v>
@@ -7816,10 +7810,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>390</v>
+      </c>
+      <c r="F205" t="s">
         <v>391</v>
-      </c>
-      <c r="F205" t="s">
-        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -7845,10 +7839,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>392</v>
+      </c>
+      <c r="F206" t="s">
         <v>393</v>
-      </c>
-      <c r="F206" t="s">
-        <v>394</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7874,10 +7868,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>394</v>
+      </c>
+      <c r="F207" t="s">
         <v>395</v>
-      </c>
-      <c r="F207" t="s">
-        <v>396</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -7903,10 +7897,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>396</v>
+      </c>
+      <c r="F208" t="s">
         <v>397</v>
-      </c>
-      <c r="F208" t="s">
-        <v>398</v>
       </c>
       <c r="G208" t="n">
         <v>40</v>
@@ -7932,10 +7926,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>398</v>
+      </c>
+      <c r="F209" t="s">
         <v>399</v>
-      </c>
-      <c r="F209" t="s">
-        <v>400</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -7961,10 +7955,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>400</v>
+      </c>
+      <c r="F210" t="s">
         <v>401</v>
-      </c>
-      <c r="F210" t="s">
-        <v>402</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7990,10 +7984,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>402</v>
+      </c>
+      <c r="F211" t="s">
         <v>403</v>
-      </c>
-      <c r="F211" t="s">
-        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>8</v>
@@ -8019,10 +8013,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>404</v>
+      </c>
+      <c r="F212" t="s">
         <v>405</v>
-      </c>
-      <c r="F212" t="s">
-        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8048,10 +8042,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>406</v>
+      </c>
+      <c r="F213" t="s">
         <v>407</v>
-      </c>
-      <c r="F213" t="s">
-        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8077,10 +8071,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>408</v>
+      </c>
+      <c r="F214" t="s">
         <v>409</v>
-      </c>
-      <c r="F214" t="s">
-        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8106,10 +8100,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>410</v>
+      </c>
+      <c r="F215" t="s">
         <v>411</v>
-      </c>
-      <c r="F215" t="s">
-        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8135,10 +8129,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>412</v>
+      </c>
+      <c r="F216" t="s">
         <v>413</v>
-      </c>
-      <c r="F216" t="s">
-        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8164,10 +8158,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>414</v>
+      </c>
+      <c r="F217" t="s">
         <v>415</v>
-      </c>
-      <c r="F217" t="s">
-        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8193,10 +8187,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>416</v>
+      </c>
+      <c r="F218" t="s">
         <v>417</v>
-      </c>
-      <c r="F218" t="s">
-        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8222,10 +8216,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>418</v>
+      </c>
+      <c r="F219" t="s">
         <v>419</v>
-      </c>
-      <c r="F219" t="s">
-        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8251,10 +8245,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>420</v>
+      </c>
+      <c r="F220" t="s">
         <v>421</v>
-      </c>
-      <c r="F220" t="s">
-        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8280,10 +8274,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>422</v>
+      </c>
+      <c r="F221" t="s">
         <v>423</v>
-      </c>
-      <c r="F221" t="s">
-        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8309,10 +8303,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>424</v>
+      </c>
+      <c r="F222" t="s">
         <v>425</v>
-      </c>
-      <c r="F222" t="s">
-        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8338,10 +8332,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>426</v>
+      </c>
+      <c r="F223" t="s">
         <v>427</v>
-      </c>
-      <c r="F223" t="s">
-        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8367,10 +8361,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>428</v>
+      </c>
+      <c r="F224" t="s">
         <v>429</v>
-      </c>
-      <c r="F224" t="s">
-        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8396,10 +8390,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>430</v>
+      </c>
+      <c r="F225" t="s">
         <v>431</v>
-      </c>
-      <c r="F225" t="s">
-        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8425,10 +8419,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>432</v>
+      </c>
+      <c r="F226" t="s">
         <v>433</v>
-      </c>
-      <c r="F226" t="s">
-        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8454,10 +8448,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>434</v>
+      </c>
+      <c r="F227" t="s">
         <v>435</v>
-      </c>
-      <c r="F227" t="s">
-        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8483,10 +8477,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>436</v>
+      </c>
+      <c r="F228" t="s">
         <v>437</v>
-      </c>
-      <c r="F228" t="s">
-        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8512,10 +8506,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>438</v>
+      </c>
+      <c r="F229" t="s">
         <v>439</v>
-      </c>
-      <c r="F229" t="s">
-        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8541,10 +8535,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>440</v>
+      </c>
+      <c r="F230" t="s">
         <v>441</v>
-      </c>
-      <c r="F230" t="s">
-        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8570,10 +8564,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>442</v>
+      </c>
+      <c r="F231" t="s">
         <v>443</v>
-      </c>
-      <c r="F231" t="s">
-        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8599,10 +8593,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>444</v>
+      </c>
+      <c r="F232" t="s">
         <v>445</v>
-      </c>
-      <c r="F232" t="s">
-        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8628,10 +8622,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>446</v>
+      </c>
+      <c r="F233" t="s">
         <v>447</v>
-      </c>
-      <c r="F233" t="s">
-        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8657,10 +8651,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>448</v>
+      </c>
+      <c r="F234" t="s">
         <v>449</v>
-      </c>
-      <c r="F234" t="s">
-        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8686,10 +8680,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>450</v>
+      </c>
+      <c r="F235" t="s">
         <v>451</v>
-      </c>
-      <c r="F235" t="s">
-        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8715,10 +8709,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>452</v>
+      </c>
+      <c r="F236" t="s">
         <v>453</v>
-      </c>
-      <c r="F236" t="s">
-        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8744,10 +8738,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>454</v>
+      </c>
+      <c r="F237" t="s">
         <v>455</v>
-      </c>
-      <c r="F237" t="s">
-        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8773,10 +8767,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>456</v>
+      </c>
+      <c r="F238" t="s">
         <v>457</v>
-      </c>
-      <c r="F238" t="s">
-        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8802,10 +8796,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>458</v>
+      </c>
+      <c r="F239" t="s">
         <v>459</v>
-      </c>
-      <c r="F239" t="s">
-        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8831,10 +8825,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>460</v>
+      </c>
+      <c r="F240" t="s">
         <v>461</v>
-      </c>
-      <c r="F240" t="s">
-        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8860,10 +8854,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>462</v>
+      </c>
+      <c r="F241" t="s">
         <v>463</v>
-      </c>
-      <c r="F241" t="s">
-        <v>464</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8889,10 +8883,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>464</v>
+      </c>
+      <c r="F242" t="s">
         <v>465</v>
-      </c>
-      <c r="F242" t="s">
-        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8918,10 +8912,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>466</v>
+      </c>
+      <c r="F243" t="s">
         <v>467</v>
-      </c>
-      <c r="F243" t="s">
-        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8947,10 +8941,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>468</v>
+      </c>
+      <c r="F244" t="s">
         <v>469</v>
-      </c>
-      <c r="F244" t="s">
-        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8976,10 +8970,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>470</v>
+      </c>
+      <c r="F245" t="s">
         <v>471</v>
-      </c>
-      <c r="F245" t="s">
-        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9005,10 +8999,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>472</v>
+      </c>
+      <c r="F246" t="s">
         <v>473</v>
-      </c>
-      <c r="F246" t="s">
-        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9034,10 +9028,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>474</v>
+      </c>
+      <c r="F247" t="s">
         <v>475</v>
-      </c>
-      <c r="F247" t="s">
-        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9063,10 +9057,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>476</v>
+      </c>
+      <c r="F248" t="s">
         <v>477</v>
-      </c>
-      <c r="F248" t="s">
-        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9092,10 +9086,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>478</v>
+      </c>
+      <c r="F249" t="s">
         <v>479</v>
-      </c>
-      <c r="F249" t="s">
-        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9121,10 +9115,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>24</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9150,10 +9144,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9208,10 +9202,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F253" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9237,10 +9231,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F254" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9266,10 +9260,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F255" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9295,10 +9289,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9324,10 +9318,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9353,10 +9347,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F258" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9382,10 +9376,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F259" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9411,10 +9405,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F260" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9440,10 +9434,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F261" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9469,10 +9463,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F262" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G262" t="n">
         <v>13</v>
@@ -9498,10 +9492,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>501</v>
+      </c>
+      <c r="F263" t="s">
         <v>503</v>
-      </c>
-      <c r="F263" t="s">
-        <v>505</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
